--- a/mig_invest/mig_invest.xlsx
+++ b/mig_invest/mig_invest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mig\Documents\00 ESTUDOS\bootcamp-dio-excel\mig_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608EFE6B-917F-4CBD-BCA3-B004CFCE37FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED7658-9DBB-4BD6-ADBB-B95F8A874DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="44" xr2:uid="{D6A57F8D-F558-4217-BD25-484E780B4251}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="127" xr2:uid="{D6A57F8D-F558-4217-BD25-484E780B4251}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,26 +48,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>INVESTIMENTO MENSAL</t>
   </si>
   <si>
-    <t>Quanto investir por mês ?</t>
-  </si>
-  <si>
-    <t>Por Quantos Anos ?</t>
-  </si>
-  <si>
-    <t>Taxa de Rendimento mensal ?</t>
-  </si>
-  <si>
-    <t>Patrimônio acumulado ?</t>
-  </si>
-  <si>
-    <t>Dividendos Mensais ?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cenários</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
     <t>Quanto em 30 Anos ?</t>
   </si>
   <si>
-    <t>Perfil</t>
-  </si>
-  <si>
     <t>Salário</t>
   </si>
   <si>
@@ -153,6 +135,27 @@
   </si>
   <si>
     <t>CONSERVADOR</t>
+  </si>
+  <si>
+    <t>PERFIL INVESTIDOR</t>
+  </si>
+  <si>
+    <t>Quanto investir por mês</t>
+  </si>
+  <si>
+    <t>Por Quantos Anos</t>
+  </si>
+  <si>
+    <t>Taxa de Rendimento mensal</t>
+  </si>
+  <si>
+    <t>Patrimônio acumulado</t>
+  </si>
+  <si>
+    <t>Dividendos Mensais</t>
+  </si>
+  <si>
+    <t>SITUAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -689,12 +692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -702,6 +699,52 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,51 +785,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1930,6 +1933,106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1633904</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71804</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Engrenagens estrutura de tópicos">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A24711-8B53-95E8-A901-0079030B80DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9224596" y="2443529"/>
+          <a:ext cx="386862" cy="382465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gráfico 4" descr="Engrenagens estrutura de tópicos">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308C0557-FC99-476A-A929-905CB0446A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="3819525"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2265,13 +2368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D9AABF-F282-4349-8509-B3643116DAA0}">
-  <dimension ref="A10:H75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C20" sqref="C20:D20 C13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -2281,105 +2384,114 @@
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:4" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="34">
+        <v>8</v>
+      </c>
+      <c r="C12" s="46">
         <v>4200</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="47"/>
     </row>
     <row r="13" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="36">
+        <v>9</v>
+      </c>
+      <c r="C13" s="48">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="38">
+        <v>10</v>
+      </c>
+      <c r="C14" s="50">
         <v>0.3</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:4" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="48">
+      <c r="B17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="35">
         <f>salario*invest_porcentagem</f>
         <v>1260</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="50">
+        <v>31</v>
+      </c>
+      <c r="C18" s="37">
         <v>10</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="52">
+        <v>32</v>
+      </c>
+      <c r="C19" s="39">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="48">
+        <v>33</v>
+      </c>
+      <c r="C20" s="35">
         <f>FV(taxa_rendimento,tempo_invest*12,aporte*-1)</f>
         <v>306538.10778801696</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="29">
+        <v>34</v>
+      </c>
+      <c r="C21" s="41">
         <f>patrimonio*carteira</f>
         <v>3004.073456322566</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="47"/>
+      <c r="B23" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34"/>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -2387,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <f>FV(taxa_rendimento,$A24*12,aporte*-1)</f>
@@ -2403,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <f>FV(taxa_rendimento,$A25*12,aporte*-1)</f>
@@ -2419,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <f>FV(taxa_rendimento,$A26*12,aporte*-1)</f>
@@ -2435,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
         <f>FV(taxa_rendimento,$A27*12,aporte*-1)</f>
@@ -2451,7 +2563,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C28" s="8">
         <f>FV(taxa_rendimento,$A28*12,aporte*-1)</f>
@@ -2462,124 +2574,134 @@
         <v>53370.150899998211</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="32"/>
+      <c r="B32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="33">
+        <v>11</v>
+      </c>
+      <c r="C33" s="45">
         <f>aporte</f>
         <v>1260</v>
       </c>
-      <c r="D33" s="33"/>
-    </row>
+      <c r="D33" s="45"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="25">
+      <c r="B36" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="53">
         <f>VLOOKUP($C$32&amp;"-"&amp;B36,tbl_perfis[],4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="24">
         <f>$C$33*C36</f>
         <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="25">
+      <c r="B37" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="53">
         <f>VLOOKUP($C$32&amp;"-"&amp;B37,tbl_perfis[],4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="24">
         <f t="shared" ref="D37:D41" si="0">$C$33*C37</f>
         <v>630</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="25">
+      <c r="B38" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="53">
         <f>VLOOKUP($C$32&amp;"-"&amp;B38,tbl_perfis[],4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="24">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="25">
+      <c r="B39" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="53">
         <f>VLOOKUP($C$32&amp;"-"&amp;B39,tbl_perfis[],4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="24">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="25">
+      <c r="B40" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="53">
         <f>VLOOKUP($C$32&amp;"-"&amp;B40,tbl_perfis[],4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="25">
+      <c r="B41" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="53">
         <f>VLOOKUP($C$32&amp;"-"&amp;B41,tbl_perfis[],4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="31"/>
+      <c r="B42" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="43"/>
       <c r="D42" s="23">
         <f>SUM(D36:D41)</f>
         <v>1260</v>
       </c>
     </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2591,25 +2713,31 @@
     <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B23:C23"/>
@@ -2618,12 +2746,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{90A4D4AF-7AFB-4478-A923-8659866E62EC}">
@@ -2640,7 +2762,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,16 +2775,16 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2671,16 +2793,16 @@
         <v>Conservador-PAPEL</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="17">
         <v>0.3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2689,10 +2811,10 @@
         <v>Conservador-TIJOLO</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="17">
         <v>0.5</v>
@@ -2712,10 +2834,10 @@
         <v>Conservador-HÍBRIDOS</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="17">
         <v>0.1</v>
@@ -2735,10 +2857,10 @@
         <v>Conservador-FOFs</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="17">
         <v>0.1</v>
@@ -2758,10 +2880,10 @@
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="17">
         <v>0</v>
@@ -2781,10 +2903,10 @@
         <v>Conservador-HOTELARIAS</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="20">
         <v>0</v>
@@ -2804,10 +2926,10 @@
         <v>Moderado-PAPEL</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" s="17">
         <v>0.32</v>
@@ -2827,10 +2949,10 @@
         <v>Moderado-TIJOLO</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" s="17">
         <v>0.35</v>
@@ -2850,10 +2972,10 @@
         <v>Moderado-HÍBRIDOS</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="17">
         <v>0.08</v>
@@ -2873,10 +2995,10 @@
         <v>Moderado-FOFs</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="17">
         <v>0.05</v>
@@ -2896,10 +3018,10 @@
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="17">
         <v>0.1</v>
@@ -2919,10 +3041,10 @@
         <v>Moderado-HOTELARIAS</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D14" s="20">
         <v>0.1</v>
@@ -2942,10 +3064,10 @@
         <v>Agressivo-PAPEL</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15" s="17">
         <v>0.5</v>
@@ -2965,10 +3087,10 @@
         <v>Agressivo-TIJOLO</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D16" s="17">
         <v>0.1</v>
@@ -2988,10 +3110,10 @@
         <v>Agressivo-HÍBRIDOS</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" s="17">
         <v>0.05</v>
@@ -3011,10 +3133,10 @@
         <v>Agressivo-FOFs</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17">
         <v>0.05</v>
@@ -3034,10 +3156,10 @@
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17">
         <v>0.2</v>
@@ -3057,10 +3179,10 @@
         <v>Agressivo-HOTELARIAS</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17">
         <v>0.1</v>
